--- a/abm/input/pak/Scenarios of vaccine roll out 2.xlsx
+++ b/abm/input/pak/Scenarios of vaccine roll out 2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\ABM\CovidABM\abm\input\pak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D3DF5-E17A-4929-B8D3-266160CAB62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66200F5-7D33-4CA3-8059-DE3EF217AE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4470" yWindow="2955" windowWidth="25020" windowHeight="13350" activeTab="4" xr2:uid="{D42993B8-8161-4F81-AAC1-91E7DB8E02F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D42993B8-8161-4F81-AAC1-91E7DB8E02F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Vers 1" sheetId="1" r:id="rId1"/>
     <sheet name="Popn" sheetId="3" r:id="rId2"/>
     <sheet name="Vers 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Scenarios for Tim" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Urban Rural" sheetId="4" r:id="rId6"/>
+    <sheet name="Init Vaccine" sheetId="7" r:id="rId4"/>
+    <sheet name="Scenarios for Tim" sheetId="5" r:id="rId5"/>
+    <sheet name="Static Sheet" sheetId="6" r:id="rId6"/>
+    <sheet name="Urban Rural" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="138">
   <si>
     <t>Rural (World Bank 2020)</t>
   </si>
@@ -387,6 +388,72 @@
   </si>
   <si>
     <t>Scenario 6</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Age 0 to 4</t>
+  </si>
+  <si>
+    <t>Ages 5 to 9</t>
+  </si>
+  <si>
+    <t>Ages 10 and 11</t>
+  </si>
+  <si>
+    <t>Ages 12 to 17</t>
+  </si>
+  <si>
+    <t>Ages 18 and 19</t>
+  </si>
+  <si>
+    <t>Frontline workers</t>
+  </si>
+  <si>
+    <t>Ages 60 to 64</t>
+  </si>
+  <si>
+    <t>Ages 65 to 69</t>
+  </si>
+  <si>
+    <t>Pregnant Urban</t>
+  </si>
+  <si>
+    <t>Pregnant Rural</t>
+  </si>
+  <si>
+    <t>totalAgents</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>totalPop</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>agents</t>
+  </si>
+  <si>
+    <t>Second Prop</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>vaccinatedCount</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
   </si>
 </sst>
 </file>
@@ -977,6 +1044,7 @@
     <xf numFmtId="43" fontId="22" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -998,7 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2858,8 +2925,8 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="122"/>
-      <c r="E19" s="124" t="s">
+      <c r="B19" s="123"/>
+      <c r="E19" s="125" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
@@ -2925,8 +2992,8 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
-      <c r="E20" s="124"/>
+      <c r="B20" s="123"/>
+      <c r="E20" s="125"/>
       <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2966,8 +3033,8 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="123"/>
+      <c r="E21" s="125"/>
       <c r="G21" t="s">
         <v>14</v>
       </c>
@@ -3014,8 +3081,8 @@
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="122"/>
-      <c r="E22" s="124"/>
+      <c r="B22" s="123"/>
+      <c r="E22" s="125"/>
       <c r="F22" t="s">
         <v>6</v>
       </c>
@@ -3079,8 +3146,8 @@
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="122"/>
-      <c r="E23" s="124"/>
+      <c r="B23" s="123"/>
+      <c r="E23" s="125"/>
       <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3120,8 +3187,8 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="122"/>
-      <c r="E24" s="124"/>
+      <c r="B24" s="123"/>
+      <c r="E24" s="125"/>
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
@@ -3245,8 +3312,8 @@
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="123"/>
-      <c r="E26" s="121" t="s">
+      <c r="B26" s="124"/>
+      <c r="E26" s="122" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
@@ -3312,8 +3379,8 @@
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="123"/>
-      <c r="E27" s="121"/>
+      <c r="B27" s="124"/>
+      <c r="E27" s="122"/>
       <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3353,8 +3420,8 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="123"/>
-      <c r="E28" s="121"/>
+      <c r="B28" s="124"/>
+      <c r="E28" s="122"/>
       <c r="G28" t="s">
         <v>14</v>
       </c>
@@ -3379,8 +3446,8 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="123"/>
-      <c r="E29" s="121"/>
+      <c r="B29" s="124"/>
+      <c r="E29" s="122"/>
       <c r="F29" t="s">
         <v>6</v>
       </c>
@@ -3444,8 +3511,8 @@
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="123"/>
-      <c r="E30" s="121"/>
+      <c r="B30" s="124"/>
+      <c r="E30" s="122"/>
       <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3485,8 +3552,8 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="123"/>
-      <c r="E31" s="121"/>
+      <c r="B31" s="124"/>
+      <c r="E31" s="122"/>
       <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
@@ -3579,8 +3646,8 @@
       <c r="Y32" s="16"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="123"/>
-      <c r="E33" s="121" t="s">
+      <c r="B33" s="124"/>
+      <c r="E33" s="122" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
@@ -3646,8 +3713,8 @@
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="123"/>
-      <c r="E34" s="121"/>
+      <c r="B34" s="124"/>
+      <c r="E34" s="122"/>
       <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3684,8 +3751,8 @@
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="123"/>
-      <c r="E35" s="121"/>
+      <c r="B35" s="124"/>
+      <c r="E35" s="122"/>
       <c r="G35" t="s">
         <v>14</v>
       </c>
@@ -3731,8 +3798,8 @@
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="123"/>
-      <c r="E36" s="121"/>
+      <c r="B36" s="124"/>
+      <c r="E36" s="122"/>
       <c r="F36" t="s">
         <v>6</v>
       </c>
@@ -3796,8 +3863,8 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="123"/>
-      <c r="E37" s="121"/>
+      <c r="B37" s="124"/>
+      <c r="E37" s="122"/>
       <c r="G37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3834,8 +3901,8 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="123"/>
-      <c r="E38" s="121"/>
+      <c r="B38" s="124"/>
+      <c r="E38" s="122"/>
       <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3962,8 +4029,8 @@
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B40" s="123"/>
-      <c r="E40" s="121" t="s">
+      <c r="B40" s="124"/>
+      <c r="E40" s="122" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
@@ -4029,8 +4096,8 @@
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="123"/>
-      <c r="E41" s="121"/>
+      <c r="B41" s="124"/>
+      <c r="E41" s="122"/>
       <c r="G41" s="1" t="s">
         <v>9</v>
       </c>
@@ -4055,8 +4122,8 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="123"/>
-      <c r="E42" s="121"/>
+      <c r="B42" s="124"/>
+      <c r="E42" s="122"/>
       <c r="G42" t="s">
         <v>14</v>
       </c>
@@ -4102,8 +4169,8 @@
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="123"/>
-      <c r="E43" s="121"/>
+      <c r="B43" s="124"/>
+      <c r="E43" s="122"/>
       <c r="F43" t="s">
         <v>6</v>
       </c>
@@ -4167,8 +4234,8 @@
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="123"/>
-      <c r="E44" s="121"/>
+      <c r="B44" s="124"/>
+      <c r="E44" s="122"/>
       <c r="G44" s="1" t="s">
         <v>9</v>
       </c>
@@ -4192,8 +4259,8 @@
       <c r="Y44" s="10"/>
     </row>
     <row r="45" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="123"/>
-      <c r="E45" s="121"/>
+      <c r="B45" s="124"/>
+      <c r="E45" s="122"/>
       <c r="G45" s="1" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4307,7 @@
     </row>
     <row r="46" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E47" s="121" t="s">
+      <c r="E47" s="122" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
@@ -4306,7 +4373,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E48" s="121"/>
+      <c r="E48" s="122"/>
       <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
@@ -4334,7 +4401,7 @@
       </c>
     </row>
     <row r="49" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E49" s="121"/>
+      <c r="E49" s="122"/>
       <c r="G49" t="s">
         <v>14</v>
       </c>
@@ -4362,7 +4429,7 @@
       </c>
     </row>
     <row r="50" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E50" s="121"/>
+      <c r="E50" s="122"/>
       <c r="F50" t="s">
         <v>6</v>
       </c>
@@ -4426,7 +4493,7 @@
       </c>
     </row>
     <row r="51" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E51" s="121"/>
+      <c r="E51" s="122"/>
       <c r="G51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4521,7 @@
       </c>
     </row>
     <row r="52" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="121"/>
+      <c r="E52" s="122"/>
       <c r="G52" s="1" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4621,7 @@
       <c r="Y54" s="16"/>
     </row>
     <row r="55" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E55" s="121" t="s">
+      <c r="E55" s="122" t="s">
         <v>20</v>
       </c>
       <c r="F55" t="s">
@@ -4601,7 +4668,7 @@
       <c r="Y55" s="7"/>
     </row>
     <row r="56" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E56" s="121"/>
+      <c r="E56" s="122"/>
       <c r="G56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4707,7 @@
       </c>
     </row>
     <row r="57" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E57" s="121"/>
+      <c r="E57" s="122"/>
       <c r="G57" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4749,7 @@
       <c r="Y57" s="10"/>
     </row>
     <row r="58" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E58" s="121"/>
+      <c r="E58" s="122"/>
       <c r="F58" t="s">
         <v>6</v>
       </c>
@@ -4748,7 +4815,7 @@
       <c r="Y58" s="10"/>
     </row>
     <row r="59" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E59" s="121"/>
+      <c r="E59" s="122"/>
       <c r="G59" s="1" t="s">
         <v>9</v>
       </c>
@@ -4787,7 +4854,7 @@
       </c>
     </row>
     <row r="60" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="121"/>
+      <c r="E60" s="122"/>
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
@@ -4960,7 +5027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C709220-83D5-47BC-B198-85B7D722580B}">
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5616,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEC76C2-707F-429E-8CEE-A4092B4E5E12}">
   <dimension ref="A1:EH68"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,6 +5692,9 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" customWidth="1"/>
@@ -6503,8 +6573,8 @@
       <c r="EH7" s="77"/>
     </row>
     <row r="8" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="123"/>
-      <c r="E8" s="125" t="s">
+      <c r="B8" s="124"/>
+      <c r="E8" s="126" t="s">
         <v>91</v>
       </c>
       <c r="F8" t="s">
@@ -6514,11 +6584,11 @@
         <v>22</v>
       </c>
       <c r="H8" s="48">
-        <f t="shared" ref="H8:K10" si="4">H38</f>
+        <f>H38</f>
         <v>5716058.6312323399</v>
       </c>
       <c r="I8" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H8:K10" si="4">I38</f>
         <v>4447016.3001431488</v>
       </c>
       <c r="J8" s="45">
@@ -6996,8 +7066,8 @@
       </c>
     </row>
     <row r="9" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="123"/>
-      <c r="E9" s="126"/>
+      <c r="B9" s="124"/>
+      <c r="E9" s="127"/>
       <c r="G9" t="s">
         <v>23</v>
       </c>
@@ -7481,8 +7551,8 @@
       </c>
     </row>
     <row r="10" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="123"/>
-      <c r="E10" s="126"/>
+      <c r="B10" s="124"/>
+      <c r="E10" s="127"/>
       <c r="G10" s="27" t="s">
         <v>21</v>
       </c>
@@ -7966,8 +8036,8 @@
       </c>
     </row>
     <row r="11" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="123"/>
-      <c r="E11" s="126"/>
+      <c r="B11" s="124"/>
+      <c r="E11" s="127"/>
       <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8355,8 +8425,8 @@
       </c>
     </row>
     <row r="12" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="123"/>
-      <c r="E12" s="126"/>
+      <c r="B12" s="124"/>
+      <c r="E12" s="127"/>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
@@ -8765,8 +8835,8 @@
       </c>
     </row>
     <row r="13" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="E13" s="126"/>
+      <c r="B13" s="124"/>
+      <c r="E13" s="127"/>
       <c r="G13" t="s">
         <v>55</v>
       </c>
@@ -9175,7 +9245,7 @@
       </c>
     </row>
     <row r="14" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="126"/>
+      <c r="E14" s="127"/>
       <c r="F14" t="s">
         <v>6</v>
       </c>
@@ -9632,8 +9702,8 @@
       </c>
     </row>
     <row r="15" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="123"/>
-      <c r="E15" s="126"/>
+      <c r="B15" s="124"/>
+      <c r="E15" s="127"/>
       <c r="G15" t="s">
         <v>23</v>
       </c>
@@ -10084,8 +10154,8 @@
       </c>
     </row>
     <row r="16" spans="1:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="123"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="124"/>
+      <c r="E16" s="127"/>
       <c r="G16" s="27" t="s">
         <v>21</v>
       </c>
@@ -10536,8 +10606,8 @@
       </c>
     </row>
     <row r="17" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="123"/>
-      <c r="E17" s="126"/>
+      <c r="B17" s="124"/>
+      <c r="E17" s="127"/>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
@@ -10925,8 +10995,8 @@
       </c>
     </row>
     <row r="18" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="123"/>
-      <c r="E18" s="126"/>
+      <c r="B18" s="124"/>
+      <c r="E18" s="127"/>
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
@@ -11335,8 +11405,8 @@
       </c>
     </row>
     <row r="19" spans="2:138" x14ac:dyDescent="0.25">
-      <c r="B19" s="123"/>
-      <c r="E19" s="127"/>
+      <c r="B19" s="124"/>
+      <c r="E19" s="128"/>
       <c r="G19" t="s">
         <v>55</v>
       </c>
@@ -11745,7 +11815,7 @@
       </c>
     </row>
     <row r="20" spans="2:138" x14ac:dyDescent="0.25">
-      <c r="B20" s="123"/>
+      <c r="B20" s="124"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -12631,8 +12701,8 @@
       <c r="EH22" s="77"/>
     </row>
     <row r="23" spans="2:138" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="123"/>
-      <c r="E23" s="125" t="s">
+      <c r="B23" s="124"/>
+      <c r="E23" s="126" t="s">
         <v>96</v>
       </c>
       <c r="F23" t="s">
@@ -13094,8 +13164,8 @@
       </c>
     </row>
     <row r="24" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="123"/>
-      <c r="E24" s="126"/>
+      <c r="B24" s="124"/>
+      <c r="E24" s="127"/>
       <c r="G24" t="s">
         <v>23</v>
       </c>
@@ -13549,8 +13619,8 @@
       </c>
     </row>
     <row r="25" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="123"/>
-      <c r="E25" s="126"/>
+      <c r="B25" s="124"/>
+      <c r="E25" s="127"/>
       <c r="G25" s="27" t="s">
         <v>21</v>
       </c>
@@ -14004,8 +14074,8 @@
       </c>
     </row>
     <row r="26" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="123"/>
-      <c r="E26" s="126"/>
+      <c r="B26" s="124"/>
+      <c r="E26" s="127"/>
       <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
@@ -14384,8 +14454,8 @@
       </c>
     </row>
     <row r="27" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="123"/>
-      <c r="E27" s="126"/>
+      <c r="B27" s="124"/>
+      <c r="E27" s="127"/>
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
@@ -14764,8 +14834,8 @@
       </c>
     </row>
     <row r="28" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="123"/>
-      <c r="E28" s="126"/>
+      <c r="B28" s="124"/>
+      <c r="E28" s="127"/>
       <c r="G28" t="s">
         <v>55</v>
       </c>
@@ -15144,7 +15214,7 @@
       </c>
     </row>
     <row r="29" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="126"/>
+      <c r="E29" s="127"/>
       <c r="F29" t="s">
         <v>6</v>
       </c>
@@ -15607,7 +15677,7 @@
       </c>
     </row>
     <row r="30" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="126"/>
+      <c r="E30" s="127"/>
       <c r="G30" t="s">
         <v>23</v>
       </c>
@@ -16064,7 +16134,7 @@
       </c>
     </row>
     <row r="31" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="126"/>
+      <c r="E31" s="127"/>
       <c r="G31" s="27" t="s">
         <v>21</v>
       </c>
@@ -16518,7 +16588,7 @@
       </c>
     </row>
     <row r="32" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="126"/>
+      <c r="E32" s="127"/>
       <c r="G32" s="1" t="s">
         <v>9</v>
       </c>
@@ -16897,7 +16967,7 @@
       </c>
     </row>
     <row r="33" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="126"/>
+      <c r="E33" s="127"/>
       <c r="G33" s="1" t="s">
         <v>24</v>
       </c>
@@ -17276,7 +17346,7 @@
       </c>
     </row>
     <row r="34" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="127"/>
+      <c r="E34" s="128"/>
       <c r="G34" t="s">
         <v>55</v>
       </c>
@@ -18567,8 +18637,8 @@
       <c r="EH37" s="77"/>
     </row>
     <row r="38" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="122"/>
-      <c r="E38" s="125" t="s">
+      <c r="B38" s="123"/>
+      <c r="E38" s="126" t="s">
         <v>97</v>
       </c>
       <c r="F38" t="s">
@@ -18940,8 +19010,8 @@
       </c>
     </row>
     <row r="39" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="122"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="123"/>
+      <c r="E39" s="127"/>
       <c r="G39" t="s">
         <v>23</v>
       </c>
@@ -19305,8 +19375,8 @@
       </c>
     </row>
     <row r="40" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="122"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="123"/>
+      <c r="E40" s="127"/>
       <c r="G40" s="27" t="s">
         <v>21</v>
       </c>
@@ -19676,8 +19746,8 @@
       </c>
     </row>
     <row r="41" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="122"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="123"/>
+      <c r="E41" s="127"/>
       <c r="G41" s="1" t="s">
         <v>9</v>
       </c>
@@ -19981,8 +20051,8 @@
       </c>
     </row>
     <row r="42" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="122"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="123"/>
+      <c r="E42" s="127"/>
       <c r="G42" s="1" t="s">
         <v>24</v>
       </c>
@@ -20277,8 +20347,8 @@
       </c>
     </row>
     <row r="43" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="122"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="123"/>
+      <c r="E43" s="127"/>
       <c r="G43" t="s">
         <v>55</v>
       </c>
@@ -20571,8 +20641,8 @@
       </c>
     </row>
     <row r="44" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="122"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="123"/>
+      <c r="E44" s="127"/>
       <c r="F44" t="s">
         <v>6</v>
       </c>
@@ -20942,8 +21012,8 @@
       </c>
     </row>
     <row r="45" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="122"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="123"/>
+      <c r="E45" s="127"/>
       <c r="G45" t="s">
         <v>23</v>
       </c>
@@ -21307,8 +21377,8 @@
       </c>
     </row>
     <row r="46" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="122"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="123"/>
+      <c r="E46" s="127"/>
       <c r="G46" s="27" t="s">
         <v>21</v>
       </c>
@@ -21678,8 +21748,8 @@
       </c>
     </row>
     <row r="47" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="122"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="123"/>
+      <c r="E47" s="127"/>
       <c r="G47" s="1" t="s">
         <v>9</v>
       </c>
@@ -21998,8 +22068,8 @@
       </c>
     </row>
     <row r="48" spans="2:138" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="122"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="123"/>
+      <c r="E48" s="127"/>
       <c r="G48" s="1" t="s">
         <v>24</v>
       </c>
@@ -22312,8 +22382,8 @@
       </c>
     </row>
     <row r="49" spans="2:138" x14ac:dyDescent="0.25">
-      <c r="B49" s="122"/>
-      <c r="E49" s="127"/>
+      <c r="B49" s="123"/>
+      <c r="E49" s="128"/>
       <c r="G49" t="s">
         <v>55</v>
       </c>
@@ -23988,14 +24058,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E62E2-C9F1-457C-915C-1A5D87D974A1}">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>A3/I6</f>
+        <v>0.81147540983606559</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>A4/I6</f>
+        <v>0.33606557377049179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <f>A12+A13+A14+A15</f>
+        <v>58</v>
+      </c>
+      <c r="J4">
+        <f>X4</f>
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="48">
+        <f>'Vers 2'!H38</f>
+        <v>5716058.6312323399</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>'Vers 2'!I38</f>
+        <v>4447016.3001431488</v>
+      </c>
+      <c r="S4" s="119">
+        <f>P4/(1+2*$Q$14/(1-$Q$14))</f>
+        <v>816579.80446176289</v>
+      </c>
+      <c r="T4" s="119">
+        <f>(P4-S4)/2</f>
+        <v>2449739.4133852883</v>
+      </c>
+      <c r="V4" t="str">
+        <f>FIXED(S4*$Q$15/$Q$16,0)</f>
+        <v>9</v>
+      </c>
+      <c r="W4" t="str">
+        <f>FIXED(T4*$Q$15/$Q$16,0)</f>
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <f>ROUND((S4+T4)*$Q$15/$Q$16,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <f>E5*J6</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <f>SUM(A6:A11)+SUM(A16:A18)</f>
+        <v>463</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J12" si="0">X5</f>
+        <v>265</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="48">
+        <f>'Vers 2'!H39</f>
+        <v>41541727.200945042</v>
+      </c>
+      <c r="Q5" s="50">
+        <f>'Vers 2'!I39</f>
+        <v>40724136.768097505</v>
+      </c>
+      <c r="S5" s="119">
+        <f t="shared" ref="S5:S12" si="1">P5/(1+2*$Q$14/(1-$Q$14))</f>
+        <v>5934532.4572778633</v>
+      </c>
+      <c r="T5" s="119">
+        <f t="shared" ref="T5:T12" si="2">(P5-S5)/2</f>
+        <v>17803597.371833589</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V12" si="3">FIXED(S5*$Q$15/$Q$16,0)</f>
+        <v>66</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ref="W5:W12" si="4">FIXED(T5*$Q$15/$Q$16,0)</f>
+        <v>199</v>
+      </c>
+      <c r="X5">
+        <f>ROUND((S5+T5)*$Q$15/$Q$16,0)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <f>ROUND(E6*$J$5,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <f>A6/$I$5</f>
+        <v>8.6393088552915762E-2</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <f>A5</f>
+        <v>122</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="48">
+        <f>'Vers 2'!H40</f>
+        <v>4731715.2634574072</v>
+      </c>
+      <c r="Q6" s="50">
+        <f>'Vers 2'!I40</f>
+        <v>11602801.340801064</v>
+      </c>
+      <c r="S6" s="119">
+        <f t="shared" si="1"/>
+        <v>675959.32335105818</v>
+      </c>
+      <c r="T6" s="119">
+        <f t="shared" si="2"/>
+        <v>2027877.9700531745</v>
+      </c>
+      <c r="U6" s="27"/>
+      <c r="V6" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="X6">
+        <f>ROUND((S6+T6)*$Q$15/$Q$16,0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>ROUND(E7*$J$5,0)</f>
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E12" si="5">A7/$I$5</f>
+        <v>0.3282937365010799</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f>A3+A4</f>
+        <v>140</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="48">
+        <f>'Vers 2'!H41</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="50">
+        <f>'Vers 2'!I41</f>
+        <v>14834500.179531109</v>
+      </c>
+      <c r="S7" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>ROUND((S7+T7)*$Q$15/$Q$16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(E8*$J$5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>1.9438444924406047E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <f>A29+A30+A31+A32</f>
+        <v>113</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="48">
+        <f>'Vers 2'!H44</f>
+        <v>6601393.3762986325</v>
+      </c>
+      <c r="Q8" s="50">
+        <f>'Vers 2'!I44</f>
+        <v>7571946.6732167117</v>
+      </c>
+      <c r="S8" s="119">
+        <f t="shared" si="1"/>
+        <v>943056.19661409035</v>
+      </c>
+      <c r="T8" s="119">
+        <f t="shared" si="2"/>
+        <v>2829168.5898422711</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="X8">
+        <f>ROUND((S8+T8)*$Q$15/$Q$16,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>ROUND(E9*$J$5,0)</f>
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>0.21382289416846653</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <f>SUM(A23:A28)+SUM(A33:A35)</f>
+        <v>748</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="48">
+        <f>'Vers 2'!H45</f>
+        <v>47975939.44994241</v>
+      </c>
+      <c r="Q9" s="50">
+        <f>'Vers 2'!I45</f>
+        <v>69341097.740274146</v>
+      </c>
+      <c r="S9" s="119">
+        <f t="shared" si="1"/>
+        <v>6853705.6357060587</v>
+      </c>
+      <c r="T9" s="119">
+        <f t="shared" si="2"/>
+        <v>20561116.907118175</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="X9">
+        <f>ROUND((S9+T9)*$Q$15/$Q$16,0)</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(E10*$J$5,0)</f>
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>0.15766738660907129</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f>A22</f>
+        <v>217</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="48">
+        <f>'Vers 2'!H46</f>
+        <v>5464589.4687026059</v>
+      </c>
+      <c r="Q10" s="50">
+        <f>'Vers 2'!I46</f>
+        <v>19756121.201904517</v>
+      </c>
+      <c r="S10" s="119">
+        <f t="shared" si="1"/>
+        <v>780655.63838608656</v>
+      </c>
+      <c r="T10" s="119">
+        <f t="shared" si="2"/>
+        <v>2341966.9151582597</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="V10" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <f>ROUND((S10+T10)*$Q$15/$Q$16,0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(E11*$J$5,0)</f>
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>0.14254859611231102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <f>A20+A21</f>
+        <v>306</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="48">
+        <f>'Vers 2'!H47</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="50">
+        <f>'Vers 2'!I47</f>
+        <v>25258743.548931349</v>
+      </c>
+      <c r="S11" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>ROUND((S11+T11)*$Q$15/$Q$16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(E12*$J$4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>A12/$I$4</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <f>A2+A19</f>
+        <v>333</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="32">
+        <f>Popn!H2</f>
+        <v>30526483.028257299</v>
+      </c>
+      <c r="S12" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>ROUND((S12+T12)*$Q$15/$Q$16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <f>ROUND(E13*$J$4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E15" si="6">A13/$I$4</f>
+        <v>0.25862068965517243</v>
+      </c>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>ROUND(E14*$J$4,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="P14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <f>T4/(S4+T4)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f>ROUND(E15*$J$4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(I4:I12)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(E16*$J$5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f>A16/$I$5</f>
+        <v>2.591792656587473E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="50">
+        <f>SUM(Q4:Q12)</f>
+        <v>224062846.78115687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <f>ROUND(E17*$J$5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E16:E18" si="7">A17/$I$5</f>
+        <v>1.7278617710583154E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18">
+        <f>ROUND(E18*$J$5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>8.6393088552915772E-3</v>
+      </c>
+      <c r="Q18" s="38"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>234</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>234</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>SUM(D:D)</f>
+        <v>713</v>
+      </c>
+      <c r="J21">
+        <f>SUM(X:X)</f>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>217</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <f>J10*E22</f>
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(E23*$J$9,0)</f>
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <f>A23/$I$9</f>
+        <v>9.6256684491978606E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>221</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f>ROUND(E24*$J$9,0)</f>
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E28" si="8">A24/$I$9</f>
+        <v>0.29545454545454547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
+        <f>ROUND(E25*$J$9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="8"/>
+        <v>2.1390374331550801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>168</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f>ROUND(E26*$J$9,0)</f>
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>0.22459893048128343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f>ROUND(E27*$J$9,0)</f>
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>0.15508021390374332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f>ROUND(E28*$J$9,0)</f>
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0.14438502673796791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29">
+        <f>ROUND(E29*$J$8,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <f>A29/$I$8</f>
+        <v>0.36283185840707965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <f>ROUND(E30*$J$8,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E32" si="9">A30/$I$8</f>
+        <v>0.24778761061946902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f>ROUND(E31*$J$8,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>0.30088495575221241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f>ROUND(E32*$J$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>8.8495575221238937E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33">
+        <f>ROUND(E33*$J$9,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="10">A33/$I$9</f>
+        <v>3.2085561497326207E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34">
+        <f>ROUND(E34*$J$9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E35" si="11">A34/$I$9</f>
+        <v>2.0053475935828877E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35">
+        <f>ROUND(E35*$J$9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>1.06951871657754E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B766C15D-9C54-421C-98EC-46D9A9F5C079}">
   <dimension ref="A1:AZ92"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24192,7 +25387,7 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <v>7.8056640642171677</v>
+        <v>7.8056640642171704</v>
       </c>
       <c r="T4">
         <f>ROUND(AH4/5,0)</f>
@@ -24296,76 +25491,76 @@
         <v>0</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q16" si="6">FIXED(R5,0)</f>
+        <f>FIXED(R5,0)</f>
         <v>132</v>
       </c>
       <c r="R5">
         <v>131.75372427472149</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T6" si="7">ROUND(AH5/5,0)</f>
+        <f t="shared" ref="T5:T6" si="6">ROUND(AH5/5,0)</f>
         <v>31</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U6" si="8">ROUND(AH5/5,0)</f>
+        <f t="shared" ref="U5:U6" si="7">ROUND(AH5/5,0)</f>
         <v>31</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V6" si="9">ROUND(AH5/5,0)</f>
+        <f t="shared" ref="V5:V6" si="8">ROUND(AH5/5,0)</f>
         <v>31</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W6" si="10">ROUND(AH5/5,0)</f>
+        <f t="shared" ref="W5:W6" si="9">ROUND(AH5/5,0)</f>
         <v>31</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X6" si="11">AH5-SUM(T5:W5)</f>
+        <f t="shared" ref="X5:X6" si="10">AH5-SUM(T5:W5)</f>
         <v>30</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5" s="120">
-        <f t="shared" ref="AG5:AG16" si="12">SUM(T5:AF5)-AH5</f>
+        <f t="shared" ref="AG5:AG16" si="11">SUM(T5:AF5)-AH5</f>
         <v>0</v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" ref="AH5:AH16" si="13">FIXED(AI5,0)</f>
+        <f t="shared" ref="AH5:AH16" si="12">FIXED(AI5,0)</f>
         <v>154</v>
       </c>
       <c r="AI5">
         <v>154.47287280443786</v>
       </c>
       <c r="AK5">
-        <f t="shared" ref="AK5:AK6" si="14">ROUND(AY5/6,0)</f>
+        <f t="shared" ref="AK5:AK6" si="13">ROUND(AY5/6,0)</f>
         <v>30</v>
       </c>
       <c r="AL5">
-        <f t="shared" ref="AL5:AL6" si="15">ROUND(AY5/6,0)</f>
+        <f t="shared" ref="AL5:AL6" si="14">ROUND(AY5/6,0)</f>
         <v>30</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM6" si="16">ROUND(AY5/6,0)</f>
+        <f t="shared" ref="AM5:AM6" si="15">ROUND(AY5/6,0)</f>
         <v>30</v>
       </c>
       <c r="AN5">
-        <f t="shared" ref="AN5:AN6" si="17">ROUND(AY5/6,0)</f>
+        <f t="shared" ref="AN5:AN6" si="16">ROUND(AY5/6,0)</f>
         <v>30</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO6" si="18">ROUND(AZ5/6,0)</f>
+        <f t="shared" ref="AO5:AO6" si="17">ROUND(AZ5/6,0)</f>
         <v>30</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP6" si="19">AY5-SUM(AK5:AO5)</f>
+        <f t="shared" ref="AP5:AP6" si="18">AY5-SUM(AK5:AO5)</f>
         <v>27</v>
       </c>
       <c r="AX5" s="120">
-        <f t="shared" ref="AX5:AX12" si="20">SUM(AK5:AW5)-AY5</f>
+        <f t="shared" ref="AX5:AX12" si="19">SUM(AK5:AW5)-AY5</f>
         <v>0</v>
       </c>
       <c r="AY5" t="str">
-        <f t="shared" ref="AY5:AY16" si="21">FIXED(AZ5,0)</f>
+        <f t="shared" ref="AY5:AY16" si="20">FIXED(AZ5,0)</f>
         <v>177</v>
       </c>
       <c r="AZ5">
@@ -24404,76 +25599,76 @@
         <v>0</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q5:Q16" si="21">FIXED(R6,0)</f>
         <v>77</v>
       </c>
       <c r="R6">
         <v>77.170128161267741</v>
       </c>
       <c r="T6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="X6">
+        <v>16</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="120">
         <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="120">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" t="str">
-        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="AI6">
         <v>83.643089602379362</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="AP6">
+      <c r="AX6" s="120">
         <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="AX6" s="120">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AY6" t="str">
-        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="AZ6">
@@ -24504,7 +25699,7 @@
       </c>
       <c r="P7" s="120"/>
       <c r="Q7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>99</v>
       </c>
       <c r="R7">
@@ -24530,7 +25725,7 @@
       </c>
       <c r="AG7" s="120"/>
       <c r="AH7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="AI7">
@@ -24556,7 +25751,7 @@
       </c>
       <c r="AX7" s="120"/>
       <c r="AY7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>132</v>
       </c>
       <c r="AZ7">
@@ -24587,7 +25782,7 @@
       </c>
       <c r="P8" s="120"/>
       <c r="Q8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="R8">
@@ -24613,7 +25808,7 @@
       </c>
       <c r="AG8" s="120"/>
       <c r="AH8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="AI8">
@@ -24639,7 +25834,7 @@
       </c>
       <c r="AX8" s="120"/>
       <c r="AY8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="AZ8">
@@ -24670,7 +25865,7 @@
       </c>
       <c r="P9" s="120"/>
       <c r="Q9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>212</v>
       </c>
       <c r="R9">
@@ -24696,7 +25891,7 @@
       </c>
       <c r="AG9" s="120"/>
       <c r="AH9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="AI9">
@@ -24722,7 +25917,7 @@
       </c>
       <c r="AX9" s="120"/>
       <c r="AY9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>288</v>
       </c>
       <c r="AZ9">
@@ -24764,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="R10">
@@ -24794,11 +25989,11 @@
         <v>0</v>
       </c>
       <c r="AG10" s="120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="AI10">
@@ -24829,11 +26024,11 @@
         <v>4</v>
       </c>
       <c r="AX10" s="120">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AY10" t="str">
-        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="AZ10">
@@ -24872,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>351</v>
       </c>
       <c r="R11">
@@ -24902,11 +26097,11 @@
         <v>0</v>
       </c>
       <c r="AG11" s="120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="13"/>
         <v>390</v>
       </c>
       <c r="AI11">
@@ -24937,11 +26132,11 @@
         <v>70</v>
       </c>
       <c r="AX11" s="120">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AY11" t="str">
-        <f t="shared" si="21"/>
         <v>429</v>
       </c>
       <c r="AZ11">
@@ -24980,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
       <c r="R12">
@@ -25010,11 +26205,11 @@
         <v>0</v>
       </c>
       <c r="AG12" s="120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" t="str">
-        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="AI12">
@@ -25045,11 +26240,11 @@
         <v>28</v>
       </c>
       <c r="AX12" s="120">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AY12" t="str">
-        <f t="shared" si="21"/>
         <v>168</v>
       </c>
       <c r="AZ12">
@@ -25080,7 +26275,7 @@
       </c>
       <c r="P13" s="120"/>
       <c r="Q13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>169</v>
       </c>
       <c r="R13">
@@ -25106,7 +26301,7 @@
       </c>
       <c r="AG13" s="120"/>
       <c r="AH13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
       <c r="AI13">
@@ -25132,7 +26327,7 @@
       </c>
       <c r="AX13" s="120"/>
       <c r="AY13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="AZ13">
@@ -25163,7 +26358,7 @@
       </c>
       <c r="P14" s="120"/>
       <c r="Q14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="R14">
@@ -25189,7 +26384,7 @@
       </c>
       <c r="AG14" s="120"/>
       <c r="AH14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="AI14">
@@ -25215,7 +26410,7 @@
       </c>
       <c r="AX14" s="120"/>
       <c r="AY14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>61</v>
       </c>
       <c r="AZ14">
@@ -25246,7 +26441,7 @@
       </c>
       <c r="P15" s="120"/>
       <c r="Q15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>361</v>
       </c>
       <c r="R15">
@@ -25272,7 +26467,7 @@
       </c>
       <c r="AG15" s="120"/>
       <c r="AH15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>425</v>
       </c>
       <c r="AI15">
@@ -25298,7 +26493,7 @@
       </c>
       <c r="AX15" s="120"/>
       <c r="AY15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>490</v>
       </c>
       <c r="AZ15">
@@ -25308,18 +26503,18 @@
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="P16" s="120"/>
       <c r="Q16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1,672</v>
       </c>
       <c r="R16">
         <v>1671.6465345479337</v>
       </c>
       <c r="AG16" s="120">
+        <f t="shared" si="11"/>
+        <v>-1910</v>
+      </c>
+      <c r="AH16" t="str">
         <f t="shared" si="12"/>
-        <v>-1910</v>
-      </c>
-      <c r="AH16" t="str">
-        <f t="shared" si="13"/>
         <v>1,910</v>
       </c>
       <c r="AI16">
@@ -25327,7 +26522,7 @@
       </c>
       <c r="AX16" s="120"/>
       <c r="AY16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2,148</v>
       </c>
       <c r="AZ16">
@@ -34164,12 +35359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB455-2F1B-413E-B90C-691BEE91C5AF}">
   <dimension ref="A1:AZ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35306,7 +36501,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="Q16" s="128">
+      <c r="Q16" s="121">
         <v>1672</v>
       </c>
       <c r="R16">
@@ -35315,13 +36510,13 @@
       <c r="AG16">
         <v>-1910</v>
       </c>
-      <c r="AH16" s="128">
+      <c r="AH16" s="121">
         <v>1910</v>
       </c>
       <c r="AI16">
         <v>1909.767386</v>
       </c>
-      <c r="AY16" s="128">
+      <c r="AY16" s="121">
         <v>2148</v>
       </c>
       <c r="AZ16">
@@ -36614,7 +37809,7 @@
       <c r="P31">
         <v>-1672</v>
       </c>
-      <c r="Q31" s="128">
+      <c r="Q31" s="121">
         <v>1672</v>
       </c>
       <c r="R31">
@@ -36623,13 +37818,13 @@
       <c r="AG31">
         <v>-1910</v>
       </c>
-      <c r="AH31" s="128">
+      <c r="AH31" s="121">
         <v>1910</v>
       </c>
       <c r="AI31">
         <v>1909.767386</v>
       </c>
-      <c r="AY31" s="128">
+      <c r="AY31" s="121">
         <v>2148</v>
       </c>
       <c r="AZ31">
@@ -38561,7 +39756,7 @@
       <c r="P46">
         <v>-1672</v>
       </c>
-      <c r="Q46" s="128">
+      <c r="Q46" s="121">
         <v>1672</v>
       </c>
       <c r="R46">
@@ -38570,13 +39765,13 @@
       <c r="AG46">
         <v>-1910</v>
       </c>
-      <c r="AH46" s="128">
+      <c r="AH46" s="121">
         <v>1910</v>
       </c>
       <c r="AI46">
         <v>1909.767386</v>
       </c>
-      <c r="AY46" s="128">
+      <c r="AY46" s="121">
         <v>2148</v>
       </c>
       <c r="AZ46">
@@ -40373,7 +41568,7 @@
       <c r="P61">
         <v>-1672</v>
       </c>
-      <c r="Q61" s="128">
+      <c r="Q61" s="121">
         <v>1672</v>
       </c>
       <c r="R61">
@@ -40382,13 +41577,13 @@
       <c r="AG61">
         <v>-1910</v>
       </c>
-      <c r="AH61" s="128">
+      <c r="AH61" s="121">
         <v>1910</v>
       </c>
       <c r="AI61">
         <v>1909.767386</v>
       </c>
-      <c r="AY61" s="128">
+      <c r="AY61" s="121">
         <v>2148</v>
       </c>
       <c r="AZ61">
@@ -42311,7 +43506,7 @@
       <c r="P76">
         <v>-1672</v>
       </c>
-      <c r="Q76" s="128">
+      <c r="Q76" s="121">
         <v>1672</v>
       </c>
       <c r="R76">
@@ -42320,7 +43515,7 @@
       <c r="AG76">
         <v>-1910</v>
       </c>
-      <c r="AH76" s="128">
+      <c r="AH76" s="121">
         <v>1910</v>
       </c>
       <c r="AI76">
@@ -42329,7 +43524,7 @@
       <c r="AX76">
         <v>-2148</v>
       </c>
-      <c r="AY76" s="128">
+      <c r="AY76" s="121">
         <v>2148</v>
       </c>
       <c r="AZ76">
@@ -43354,12 +44549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11C29DF-2D7D-45CC-9267-DE1B30AB48E8}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43643,19 +44838,19 @@
         <v>40724136.768097505</v>
       </c>
       <c r="L21" s="45">
-        <f t="shared" si="0"/>
+        <f>($H$14*J21)/(2*K21)</f>
         <v>0.36722747194130062</v>
       </c>
       <c r="M21" s="45">
-        <f t="shared" ref="M21:M22" si="2">($G$14*J21)/K21</f>
+        <f>($G$14*J21)/K21</f>
         <v>0.28562136706545604</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N22" si="3">$M$8*N27</f>
+        <f t="shared" ref="N21:N22" si="2">$M$8*N27</f>
         <v>1.1700504709872486</v>
       </c>
       <c r="P21" s="46">
-        <f t="shared" ref="P21:P22" si="4">L21/M21</f>
+        <f t="shared" ref="P21:P22" si="3">L21/M21</f>
         <v>1.2857142857142856</v>
       </c>
     </row>
@@ -43676,15 +44871,15 @@
         <v>0.1468108816837729</v>
       </c>
       <c r="M22" s="45">
+        <f t="shared" ref="M21:M22" si="4">($G$14*J22)/K22</f>
+        <v>0.11418624130960116</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="2"/>
-        <v>0.11418624130960116</v>
-      </c>
-      <c r="N22">
+        <v>0.46776495329197276</v>
+      </c>
+      <c r="P22" s="46">
         <f t="shared" si="3"/>
-        <v>0.46776495329197276</v>
-      </c>
-      <c r="P22" s="46">
-        <f t="shared" si="4"/>
         <v>1.2857142857142856</v>
       </c>
     </row>
@@ -43775,7 +44970,7 @@
         <v>0.24907794604970418</v>
       </c>
       <c r="M27" s="45">
-        <f t="shared" ref="M27:M28" si="7">($G$14*J27)/K27</f>
+        <f>($G$14*J27)/K27</f>
         <v>0.19372729137199213</v>
       </c>
       <c r="N27">
@@ -43783,7 +44978,7 @@
         <v>0.79360557244632557</v>
       </c>
       <c r="P27" s="46">
-        <f t="shared" ref="P27:P28" si="8">L27/M27</f>
+        <f t="shared" ref="P27:P28" si="7">L27/M27</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -43800,11 +44995,11 @@
         <v>19756121.201904517</v>
       </c>
       <c r="L28" s="45">
-        <f t="shared" si="6"/>
+        <f>($H$14*J28)/(2*K28)</f>
         <v>9.9576844494317654E-2</v>
       </c>
       <c r="M28" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M27:M28" si="8">($G$14*J28)/K28</f>
         <v>7.7448656828913748E-2</v>
       </c>
       <c r="N28">
@@ -43812,7 +45007,7 @@
         <v>0.31726911166009902</v>
       </c>
       <c r="P28" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2857142857142854</v>
       </c>
     </row>
@@ -43878,12 +45073,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D140075BD224AE449FF701EAD4713FC4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c5438ebce28973e49267e40e61d2f6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da7c69ca-badc-4474-8fea-05c5fde18741" xmlns:ns3="66ee2525-5f9a-41dd-bf04-d22476b56099" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9030c124d72b706cd1f01ed2abdadf5" ns2:_="" ns3:_="">
     <xsd:import namespace="da7c69ca-badc-4474-8fea-05c5fde18741"/>
@@ -44106,6 +45295,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D60A27-FF8C-4555-8F6F-C22516EBA30E}">
   <ds:schemaRefs>
@@ -44115,15 +45310,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D326C7-CF94-4B20-AC80-326EE248EF9E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B7B2C2-86EF-4BA9-83A4-A8822A818885}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44140,4 +45326,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D326C7-CF94-4B20-AC80-326EE248EF9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/abm/input/pak/Scenarios of vaccine roll out 2.xlsx
+++ b/abm/input/pak/Scenarios of vaccine roll out 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\ABM\CovidABM\abm\input\pak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66200F5-7D33-4CA3-8059-DE3EF217AE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7117A1-CCA3-4C91-8C8E-766AAF912117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D42993B8-8161-4F81-AAC1-91E7DB8E02F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D42993B8-8161-4F81-AAC1-91E7DB8E02F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Vers 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="138">
   <si>
     <t>Rural (World Bank 2020)</t>
   </si>
@@ -24062,7 +24062,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24132,6 +24132,9 @@
       <c r="J3" t="s">
         <v>137</v>
       </c>
+      <c r="K3" t="s">
+        <v>133</v>
+      </c>
       <c r="O3" t="s">
         <v>109</v>
       </c>
@@ -24188,6 +24191,10 @@
         <f>X4</f>
         <v>36</v>
       </c>
+      <c r="K4" t="str">
+        <f>V4</f>
+        <v>9</v>
+      </c>
       <c r="N4" t="s">
         <v>5</v>
       </c>
@@ -24251,6 +24258,10 @@
         <f t="shared" ref="J5:J12" si="0">X5</f>
         <v>265</v>
       </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K12" si="1">V5</f>
+        <v>66</v>
+      </c>
       <c r="O5" t="s">
         <v>23</v>
       </c>
@@ -24263,19 +24274,19 @@
         <v>40724136.768097505</v>
       </c>
       <c r="S5" s="119">
-        <f t="shared" ref="S5:S12" si="1">P5/(1+2*$Q$14/(1-$Q$14))</f>
+        <f t="shared" ref="S5:S12" si="2">P5/(1+2*$Q$14/(1-$Q$14))</f>
         <v>5934532.4572778633</v>
       </c>
       <c r="T5" s="119">
-        <f t="shared" ref="T5:T12" si="2">(P5-S5)/2</f>
+        <f t="shared" ref="T5:T12" si="3">(P5-S5)/2</f>
         <v>17803597.371833589</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V12" si="3">FIXED(S5*$Q$15/$Q$16,0)</f>
+        <f t="shared" ref="V5:V12" si="4">FIXED(S5*$Q$15/$Q$16,0)</f>
         <v>66</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W12" si="4">FIXED(T5*$Q$15/$Q$16,0)</f>
+        <f t="shared" ref="W5:W12" si="5">FIXED(T5*$Q$15/$Q$16,0)</f>
         <v>199</v>
       </c>
       <c r="X5">
@@ -24312,6 +24323,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="O6" s="27" t="s">
         <v>21</v>
       </c>
@@ -24324,20 +24339,20 @@
         <v>11602801.340801064</v>
       </c>
       <c r="S6" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>675959.32335105818</v>
       </c>
       <c r="T6" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2027877.9700531745</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="X6">
@@ -24360,7 +24375,7 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E12" si="5">A7/$I$5</f>
+        <f t="shared" ref="E7:E12" si="6">A7/$I$5</f>
         <v>0.3282937365010799</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -24374,6 +24389,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O7" s="1" t="s">
         <v>9</v>
       </c>
@@ -24386,20 +24405,20 @@
         <v>14834500.179531109</v>
       </c>
       <c r="S7" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7">
@@ -24422,7 +24441,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9438444924406047E-2</v>
       </c>
       <c r="G8" t="s">
@@ -24439,6 +24458,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="N8" t="s">
         <v>6</v>
       </c>
@@ -24454,19 +24477,19 @@
         <v>7571946.6732167117</v>
       </c>
       <c r="S8" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>943056.19661409035</v>
       </c>
       <c r="T8" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2829168.5898422711</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="X8">
@@ -24489,7 +24512,7 @@
         <v>57</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21382289416846653</v>
       </c>
       <c r="H9" t="s">
@@ -24503,6 +24526,10 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
       <c r="O9" t="s">
         <v>23</v>
       </c>
@@ -24515,19 +24542,19 @@
         <v>69341097.740274146</v>
       </c>
       <c r="S9" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6853705.6357060587</v>
       </c>
       <c r="T9" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20561116.907118175</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>229</v>
       </c>
       <c r="X9">
@@ -24550,7 +24577,7 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15766738660907129</v>
       </c>
       <c r="H10" s="27" t="s">
@@ -24564,6 +24591,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="O10" s="27" t="s">
         <v>21</v>
       </c>
@@ -24576,20 +24607,20 @@
         <v>19756121.201904517</v>
       </c>
       <c r="S10" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>780655.63838608656</v>
       </c>
       <c r="T10" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2341966.9151582597</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="X10">
@@ -24612,7 +24643,7 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14254859611231102</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -24626,6 +24657,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>9</v>
       </c>
@@ -24638,20 +24673,20 @@
         <v>25258743.548931349</v>
       </c>
       <c r="S11" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11">
@@ -24691,6 +24726,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N12" t="s">
         <v>54</v>
       </c>
@@ -24702,19 +24741,19 @@
         <v>30526483.028257299</v>
       </c>
       <c r="S12" s="119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12">
@@ -24737,7 +24776,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="6">A13/$I$4</f>
+        <f t="shared" ref="E13:E15" si="7">A13/$I$4</f>
         <v>0.25862068965517243</v>
       </c>
       <c r="P13" s="48"/>
@@ -24757,7 +24796,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31034482758620691</v>
       </c>
       <c r="P14" t="s">
@@ -24786,7 +24825,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6206896551724144E-2</v>
       </c>
       <c r="P15" t="s">
@@ -24838,7 +24877,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E16:E18" si="7">A17/$I$5</f>
+        <f t="shared" ref="E16:E18" si="8">A17/$I$5</f>
         <v>1.7278617710583154E-2</v>
       </c>
     </row>
@@ -24857,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6393088552915772E-3</v>
       </c>
       <c r="Q18" s="38"/>
@@ -24964,7 +25003,7 @@
         <v>90</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E28" si="8">A24/$I$9</f>
+        <f t="shared" ref="E24:E28" si="9">A24/$I$9</f>
         <v>0.29545454545454547</v>
       </c>
     </row>
@@ -24983,7 +25022,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1390374331550801E-2</v>
       </c>
     </row>
@@ -25002,7 +25041,7 @@
         <v>69</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22459893048128343</v>
       </c>
     </row>
@@ -25021,7 +25060,7 @@
         <v>47</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15508021390374332</v>
       </c>
     </row>
@@ -25040,7 +25079,7 @@
         <v>44</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14438502673796791</v>
       </c>
     </row>
@@ -25078,7 +25117,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E32" si="9">A30/$I$8</f>
+        <f t="shared" ref="E30:E32" si="10">A30/$I$8</f>
         <v>0.24778761061946902</v>
       </c>
     </row>
@@ -25097,7 +25136,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.30088495575221241</v>
       </c>
     </row>
@@ -25116,7 +25155,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.8495575221238937E-2</v>
       </c>
     </row>
@@ -25135,7 +25174,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="10">A33/$I$9</f>
+        <f t="shared" ref="E33" si="11">A33/$I$9</f>
         <v>3.2085561497326207E-2</v>
       </c>
     </row>
@@ -25154,7 +25193,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E35" si="11">A34/$I$9</f>
+        <f t="shared" ref="E34:E35" si="12">A34/$I$9</f>
         <v>2.0053475935828877E-2</v>
       </c>
     </row>
@@ -25173,7 +25212,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.06951871657754E-2</v>
       </c>
     </row>
@@ -25190,10 +25229,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
